--- a/data/trans_bre/P20_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20_1_R-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,61</t>
+          <t>-9,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,73</t>
+          <t>-9,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-54,67%</t>
+          <t>-66,75%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-51,42%</t>
+          <t>-53,86%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,39; -1,27</t>
+          <t>-33,8; 0,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,32; -0,91</t>
+          <t>-30,51; 0,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-79,82; -14,11</t>
+          <t>-94,32; 17,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-77,74; -4,6</t>
+          <t>-85,52; 4,94</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>58,05%</t>
+          <t>108,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>9,39%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 8,71</t>
+          <t>2,38; 11,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 5,45</t>
+          <t>-3,73; 5,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,87; 126,53</t>
+          <t>24,56; 264,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 60,23</t>
+          <t>-31,84; 73,38</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>6,53</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>4,73</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,96</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>45,82%</t>
+          <t>60,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>45,32%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 9,01</t>
+          <t>0,49; 13,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 7,44</t>
+          <t>-0,85; 10,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 112,19</t>
+          <t>-2,48; 179,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 81,78</t>
+          <t>-7,31; 130,04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,46%</t>
+          <t>2,64%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 4,9</t>
+          <t>-2,38; 4,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 2,52</t>
+          <t>-3,57; 4,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 55,78</t>
+          <t>-21,38; 53,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,85; 24,12</t>
+          <t>-28,7; 49,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>23,81%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 4,5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 3,18</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 53,58</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-20,23; 32,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P20_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20_1_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-9,45</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-9,84</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-66,75%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-53,86%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-9.911889697962838</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-8.570422821185646</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.6474915651138465</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.4653627243635484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-33,8; 0,29</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-30,51; 0,11</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-94,32; 17,63</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-85,52; 4,94</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-31.20870903397061</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-27.02290594221795</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.841981511227109</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.3986934119129408</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.9493635115782648</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.101032283305014</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.1541146916869833</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,77</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>108,57%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>9,39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 11,68</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,73; 5,69</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>24,56; 264,91</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-31,84; 73,38</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.593067947784752</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.7246688932122741</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1.141203091475067</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.06820723098256588</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,53</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,73</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>60,16%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>45,32%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2.392656245658243</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.621786947299944</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.207900527941575</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.3508541119322057</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 13,18</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 10,06</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 179,24</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,31; 130,04</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.26691123224719</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.495816701902162</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>2.891013639374696</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.6859301383154713</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>10,55%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,64%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>6.169397224893403</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.987359690175948</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.5247755087205164</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.4785599714643499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,38; 4,23</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,57; 4,35</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-21,38; 53,78</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-28,7; 49,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.337056670684039</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.09254848847425226</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.1012453041423267</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.0161939647236998</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.04115414111278</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.42266419287358</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>1.61997861825887</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.335930605013046</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,23</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>23,81%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,28%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,34; 4,5</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,65; 3,18</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,76; 53,58</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-20,23; 32,94</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>4.312699582828832</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.6885931177726512</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.4380589508725117</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.05826820660328274</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.7851850224112056</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.532023976285567</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.08290496003541371</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2382300860460586</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.451098127615527</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.763076221161838</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.109559864691575</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.4955138039322202</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
